--- a/vlz_report.xlsx
+++ b/vlz_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajn/PycharmProjects/TaaraMail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD80B706-3AFE-7743-A71E-AA86BFE05298}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38856BD1-F3F4-1646-87DD-74248AAE30DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{720CE2AB-B664-744E-8AEB-29CC10E0D1AA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{720CE2AB-B664-744E-8AEB-29CC10E0D1AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/vlz_report.xlsx
+++ b/vlz_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajn/PycharmProjects/TaaraMail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38856BD1-F3F4-1646-87DD-74248AAE30DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C4BFBA-0996-E44F-90A5-A4431919B2D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{720CE2AB-B664-744E-8AEB-29CC10E0D1AA}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/vlz_report.xlsx
+++ b/vlz_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajn/PycharmProjects/TaaraMail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C4BFBA-0996-E44F-90A5-A4431919B2D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1861F73-D9FB-EE4D-8872-DF472E8EB595}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{720CE2AB-B664-744E-8AEB-29CC10E0D1AA}"/>
+    <workbookView xWindow="36060" yWindow="1060" windowWidth="32720" windowHeight="20540" xr2:uid="{720CE2AB-B664-744E-8AEB-29CC10E0D1AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/vlz_report.xlsx
+++ b/vlz_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajn/PycharmProjects/TaaraMail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1861F73-D9FB-EE4D-8872-DF472E8EB595}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8F3655-6C27-1945-90B8-B31854096763}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36060" yWindow="1060" windowWidth="32720" windowHeight="20540" xr2:uid="{720CE2AB-B664-744E-8AEB-29CC10E0D1AA}"/>
   </bookViews>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD895197-0339-C347-8D7D-1DDF41255A57}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
